--- a/systems2atoms/systems/inputs/input_params_baseline.xlsx
+++ b/systems2atoms/systems/inputs/input_params_baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/modeling/model - LOCAL COPY/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F45A9C-F972-4F09-89A3-E15A77E02977}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F19E40F-8480-4655-8FDB-56197F295232}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{6CEB0D03-8142-4461-B5D8-E2E1F9D69928}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{6CEB0D03-8142-4461-B5D8-E2E1F9D69928}">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{A7F3BD7A-BC91-4F82-8B30-22EC15A227B3}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{A7F3BD7A-BC91-4F82-8B30-22EC15A227B3}">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>run #</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>closed loop</t>
+  </si>
+  <si>
+    <t>terminal compressed hydrogen storage amount (days)</t>
+  </si>
+  <si>
+    <t>terminal liquid hydrogen storage amount (days)</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1310,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1607,19 +1609,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -1644,20 +1646,22 @@
     <col min="25" max="25" width="31" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="43" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="43" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1740,40 +1744,46 @@
         <v>39</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1857,40 +1867,46 @@
         <v>0.25</v>
       </c>
       <c r="AB2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
         <v>300</v>
       </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AG2" s="1">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AJ2" s="1">
         <v>3500</v>
       </c>
-      <c r="AI2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1975,40 +1991,46 @@
         <v>0.25</v>
       </c>
       <c r="AB3">
+        <v>0.25</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>300</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>3500</v>
       </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2093,41 +2115,47 @@
         <v>0.25</v>
       </c>
       <c r="AB4">
+        <v>0.25</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>300</v>
       </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>3500</v>
       </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:AL4">
+  <conditionalFormatting sqref="C3:AN4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>
